--- a/forms/contact/link_facility-edit.xlsx
+++ b/forms/contact/link_facility-edit.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="156">
   <si>
     <t>type</t>
   </si>
@@ -113,24 +113,6 @@
     <t>roles</t>
   </si>
   <si>
-    <t>chw</t>
-  </si>
-  <si>
-    <t>CHW</t>
-  </si>
-  <si>
-    <t>Mhudumu wa afya</t>
-  </si>
-  <si>
-    <t>chw_supervisor</t>
-  </si>
-  <si>
-    <t>CHW Supervisor</t>
-  </si>
-  <si>
-    <t>Mkuu wa wahudumu wa afya</t>
-  </si>
-  <si>
     <t>nurse</t>
   </si>
   <si>
@@ -147,15 +129,6 @@
   </si>
   <si>
     <t>Meneja wa Kituo cha afya</t>
-  </si>
-  <si>
-    <t>patient</t>
-  </si>
-  <si>
-    <t>Patient</t>
-  </si>
-  <si>
-    <t>Mgonjwa</t>
   </si>
   <si>
     <t>other</t>
@@ -507,6 +480,15 @@
   </si>
   <si>
     <t>Edit Link Facility</t>
+  </si>
+  <si>
+    <t>lab_tech</t>
+  </si>
+  <si>
+    <t>Laboratory Technician</t>
+  </si>
+  <si>
+    <t>Fundi wa maabara</t>
   </si>
 </sst>
 </file>
@@ -1257,10 +1239,10 @@
   <dimension ref="A1:AG998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1301,55 +1283,55 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="P1" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="Q1" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="R1" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="S1" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q1" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="R1" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="S1" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
@@ -1366,16 +1348,16 @@
     </row>
     <row r="2" spans="1:33" ht="14.25" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="b">
@@ -1411,16 +1393,16 @@
     </row>
     <row r="3" spans="1:33" ht="14.4">
       <c r="A3" s="6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -1454,16 +1436,16 @@
     </row>
     <row r="4" spans="1:33" ht="14.25" customHeight="1">
       <c r="A4" s="23" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -1482,7 +1464,7 @@
       <c r="S4" s="28"/>
       <c r="T4" s="9"/>
       <c r="U4" s="18" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="V4" s="9"/>
       <c r="W4" s="9"/>
@@ -1499,16 +1481,16 @@
     </row>
     <row r="5" spans="1:33" ht="14.25" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -1527,7 +1509,7 @@
       <c r="S5" s="28"/>
       <c r="T5" s="6"/>
       <c r="U5" s="18" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
@@ -1544,16 +1526,16 @@
     </row>
     <row r="6" spans="1:33" ht="14.25" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -1572,7 +1554,7 @@
       <c r="S6" s="28"/>
       <c r="T6" s="6"/>
       <c r="U6" s="18" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
@@ -1589,7 +1571,7 @@
     </row>
     <row r="7" spans="1:33" ht="14.4">
       <c r="A7" s="6" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1626,7 +1608,7 @@
     </row>
     <row r="8" spans="1:33" ht="14.25" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1663,21 +1645,21 @@
     </row>
     <row r="9" spans="1:33" ht="14.25" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -1708,22 +1690,22 @@
     </row>
     <row r="10" spans="1:33" ht="14.25" customHeight="1">
       <c r="A10" s="34" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -1753,22 +1735,22 @@
     </row>
     <row r="11" spans="1:33" ht="14.25" customHeight="1">
       <c r="A11" s="34" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B11" s="34" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -1798,16 +1780,16 @@
     </row>
     <row r="12" spans="1:33" ht="14.25" customHeight="1">
       <c r="A12" s="35" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B12" s="35" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E12" s="36"/>
       <c r="F12" s="36"/>
@@ -1826,7 +1808,7 @@
       <c r="S12" s="28"/>
       <c r="T12" s="36"/>
       <c r="U12" s="36" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="V12" s="36"/>
       <c r="W12" s="36"/>
@@ -1843,21 +1825,21 @@
     </row>
     <row r="13" spans="1:33" ht="14.25" customHeight="1">
       <c r="A13" s="18" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -1888,10 +1870,10 @@
     </row>
     <row r="14" spans="1:33" ht="14.25" customHeight="1">
       <c r="A14" s="18" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="12"/>
@@ -1902,7 +1884,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="18" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
@@ -1914,7 +1896,7 @@
       <c r="S14" s="28"/>
       <c r="T14" s="9"/>
       <c r="U14" s="23" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="V14" s="9"/>
       <c r="W14" s="9"/>
@@ -1931,21 +1913,21 @@
     </row>
     <row r="15" spans="1:33" s="67" customFormat="1" ht="14.25" customHeight="1">
       <c r="A15" s="60" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D15" s="61" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E15" s="60"/>
       <c r="F15" s="60"/>
       <c r="G15" s="68" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="H15" s="60"/>
       <c r="I15" s="60"/>
@@ -1953,23 +1935,23 @@
       <c r="K15" s="60"/>
       <c r="L15" s="60"/>
       <c r="M15" s="60" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="N15" s="62" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="O15" s="63" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="P15" s="61" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="64" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="R15" s="65"/>
       <c r="S15" s="66" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="T15" s="60"/>
       <c r="U15" s="60"/>
@@ -1988,7 +1970,7 @@
     </row>
     <row r="16" spans="1:33" ht="14.25" customHeight="1">
       <c r="A16" s="35" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
@@ -2025,31 +2007,31 @@
     </row>
     <row r="17" spans="1:33" ht="14.25" customHeight="1">
       <c r="A17" s="38" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="40" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="40" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -2061,7 +2043,7 @@
       <c r="S17" s="28"/>
       <c r="T17" s="6"/>
       <c r="U17" s="40" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
@@ -2078,10 +2060,10 @@
     </row>
     <row r="18" spans="1:33" ht="14.25" customHeight="1">
       <c r="A18" s="41" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="12"/>
@@ -2092,7 +2074,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="43" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
@@ -2119,29 +2101,29 @@
     </row>
     <row r="19" spans="1:33" ht="14.25" customHeight="1">
       <c r="A19" s="44" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B19" s="44" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="40" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -2168,16 +2150,16 @@
     </row>
     <row r="20" spans="1:33" ht="14.25" customHeight="1">
       <c r="A20" s="46" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
@@ -2211,21 +2193,21 @@
     </row>
     <row r="21" spans="1:33" ht="14.25" customHeight="1">
       <c r="A21" s="47" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="39"/>
       <c r="G21" s="39" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="39"/>
@@ -2256,10 +2238,10 @@
     </row>
     <row r="22" spans="1:33" ht="14.25" customHeight="1">
       <c r="A22" s="48" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C22" s="36"/>
       <c r="D22" s="12"/>
@@ -2270,7 +2252,7 @@
       <c r="I22" s="36"/>
       <c r="J22" s="36"/>
       <c r="K22" s="36" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="L22" s="36"/>
       <c r="M22" s="36"/>
@@ -2297,21 +2279,21 @@
     </row>
     <row r="23" spans="1:33" ht="14.25" customHeight="1">
       <c r="A23" s="49" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
@@ -2342,22 +2324,22 @@
     </row>
     <row r="24" spans="1:33" ht="14.25" customHeight="1">
       <c r="A24" s="51" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="23" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2372,7 +2354,7 @@
       <c r="S24" s="28"/>
       <c r="T24" s="9"/>
       <c r="U24" s="23" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="V24" s="9"/>
       <c r="W24" s="9"/>
@@ -2389,22 +2371,22 @@
     </row>
     <row r="25" spans="1:33" ht="14.25" customHeight="1">
       <c r="A25" s="51" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="23" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2434,16 +2416,16 @@
     </row>
     <row r="26" spans="1:33" ht="14.25" customHeight="1">
       <c r="A26" s="51" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
@@ -2477,10 +2459,10 @@
     </row>
     <row r="27" spans="1:33" ht="14.25" customHeight="1">
       <c r="A27" s="51" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B27" s="52" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="12"/>
@@ -2491,7 +2473,7 @@
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="45" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
@@ -2503,7 +2485,7 @@
       <c r="S27" s="28"/>
       <c r="T27" s="9"/>
       <c r="U27" s="23" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="V27" s="9"/>
       <c r="W27" s="9"/>
@@ -2520,10 +2502,10 @@
     </row>
     <row r="28" spans="1:33" ht="14.25" customHeight="1">
       <c r="A28" s="51" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B28" s="52" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="12"/>
@@ -2534,7 +2516,7 @@
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="45" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
@@ -2561,10 +2543,10 @@
     </row>
     <row r="29" spans="1:33" ht="14.25" customHeight="1">
       <c r="A29" s="51" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="12"/>
@@ -2575,7 +2557,7 @@
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="45" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
@@ -2602,7 +2584,7 @@
     </row>
     <row r="30" spans="1:33" ht="14.25" customHeight="1">
       <c r="A30" s="45" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -2639,7 +2621,7 @@
     </row>
     <row r="31" spans="1:33" ht="14.25" customHeight="1">
       <c r="A31" s="6" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -2676,21 +2658,21 @@
     </row>
     <row r="32" spans="1:33" ht="14.25" customHeight="1">
       <c r="A32" s="6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
@@ -2721,27 +2703,27 @@
     </row>
     <row r="33" spans="1:33" ht="14.25" customHeight="1">
       <c r="A33" s="45" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="45" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="54" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
@@ -2768,10 +2750,10 @@
     </row>
     <row r="34" spans="1:33" ht="13.5" customHeight="1">
       <c r="A34" s="45" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B34" s="45" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="12"/>
@@ -2782,7 +2764,7 @@
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="55" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
@@ -2809,27 +2791,27 @@
     </row>
     <row r="35" spans="1:33" ht="14.25" customHeight="1">
       <c r="A35" s="45" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="45" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="54" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
@@ -2856,10 +2838,10 @@
     </row>
     <row r="36" spans="1:33" ht="14.25" customHeight="1">
       <c r="A36" s="23" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="12"/>
@@ -2870,7 +2852,7 @@
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="40" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
@@ -2897,7 +2879,7 @@
     </row>
     <row r="37" spans="1:33" ht="14.25" customHeight="1">
       <c r="A37" s="39" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
@@ -10549,10 +10531,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R979"/>
+  <dimension ref="A1:R977"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -10793,42 +10775,42 @@
       <c r="A9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>36</v>
+      <c r="B9" s="23" t="s">
+        <v>153</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>37</v>
+      <c r="C9" s="23" t="s">
+        <v>154</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>38</v>
+      <c r="D9" s="59" t="s">
+        <v>155</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
     </row>
     <row r="10" spans="1:18" ht="14.25" customHeight="1">
       <c r="A10" s="18" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -10846,45 +10828,45 @@
       <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A11" s="18" t="s">
-        <v>29</v>
+      <c r="A11" s="10" t="s">
+        <v>39</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>42</v>
+      <c r="B11" s="10" t="s">
+        <v>13</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>43</v>
+      <c r="C11" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
     </row>
     <row r="12" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A12" s="18" t="s">
-        <v>29</v>
+      <c r="A12" s="10" t="s">
+        <v>39</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>45</v>
+      <c r="B12" s="10" t="s">
+        <v>16</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>46</v>
+      <c r="C12" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -10902,17 +10884,17 @@
       <c r="R12" s="9"/>
     </row>
     <row r="13" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A13" s="10" t="s">
-        <v>48</v>
+      <c r="A13" s="18" t="s">
+        <v>42</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>13</v>
+      <c r="B13" s="14" t="s">
+        <v>43</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>14</v>
+      <c r="C13" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -10930,17 +10912,17 @@
       <c r="R13" s="9"/>
     </row>
     <row r="14" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A14" s="10" t="s">
-        <v>48</v>
+      <c r="A14" s="18" t="s">
+        <v>42</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>16</v>
+      <c r="B14" s="14" t="s">
+        <v>46</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>49</v>
+      <c r="C14" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -10959,16 +10941,16 @@
     </row>
     <row r="15" spans="1:18" ht="14.25" customHeight="1">
       <c r="A15" s="18" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -10987,16 +10969,16 @@
     </row>
     <row r="16" spans="1:18" ht="14.25" customHeight="1">
       <c r="A16" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -11015,16 +10997,16 @@
     </row>
     <row r="17" spans="1:18" ht="14.25" customHeight="1">
       <c r="A17" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -11043,16 +11025,16 @@
     </row>
     <row r="18" spans="1:18" ht="14.25" customHeight="1">
       <c r="A18" s="18" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -11069,19 +11051,11 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
     </row>
-    <row r="19" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A19" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>65</v>
-      </c>
+    <row r="19" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -11097,19 +11071,11 @@
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
     </row>
-    <row r="20" spans="1:18" ht="14.25" customHeight="1">
-      <c r="A20" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>67</v>
-      </c>
+    <row r="20" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -11168,7 +11134,7 @@
     <row r="23" spans="1:18" ht="15.75" customHeight="1">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="12"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -11188,7 +11154,7 @@
     <row r="24" spans="1:18" ht="15.75" customHeight="1">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="12"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
@@ -11308,7 +11274,7 @@
     <row r="30" spans="1:18" ht="15.75" customHeight="1">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
-      <c r="C30" s="17"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="12"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -11328,7 +11294,7 @@
     <row r="31" spans="1:18" ht="15.75" customHeight="1">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
-      <c r="C31" s="17"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="12"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -15026,44 +14992,44 @@
       <c r="R215" s="9"/>
     </row>
     <row r="216" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A216" s="9"/>
-      <c r="B216" s="9"/>
-      <c r="C216" s="9"/>
-      <c r="D216" s="12"/>
-      <c r="E216" s="9"/>
-      <c r="F216" s="9"/>
-      <c r="G216" s="9"/>
-      <c r="H216" s="9"/>
-      <c r="I216" s="9"/>
-      <c r="J216" s="9"/>
-      <c r="K216" s="9"/>
-      <c r="L216" s="9"/>
-      <c r="M216" s="9"/>
-      <c r="N216" s="9"/>
-      <c r="O216" s="9"/>
-      <c r="P216" s="9"/>
-      <c r="Q216" s="9"/>
-      <c r="R216" s="9"/>
+      <c r="A216" s="19"/>
+      <c r="B216" s="19"/>
+      <c r="C216" s="19"/>
+      <c r="D216" s="59"/>
+      <c r="E216" s="19"/>
+      <c r="F216" s="19"/>
+      <c r="G216" s="19"/>
+      <c r="H216" s="19"/>
+      <c r="I216" s="19"/>
+      <c r="J216" s="19"/>
+      <c r="K216" s="19"/>
+      <c r="L216" s="19"/>
+      <c r="M216" s="19"/>
+      <c r="N216" s="19"/>
+      <c r="O216" s="19"/>
+      <c r="P216" s="19"/>
+      <c r="Q216" s="19"/>
+      <c r="R216" s="19"/>
     </row>
     <row r="217" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A217" s="9"/>
-      <c r="B217" s="9"/>
-      <c r="C217" s="9"/>
-      <c r="D217" s="12"/>
-      <c r="E217" s="9"/>
-      <c r="F217" s="9"/>
-      <c r="G217" s="9"/>
-      <c r="H217" s="9"/>
-      <c r="I217" s="9"/>
-      <c r="J217" s="9"/>
-      <c r="K217" s="9"/>
-      <c r="L217" s="9"/>
-      <c r="M217" s="9"/>
-      <c r="N217" s="9"/>
-      <c r="O217" s="9"/>
-      <c r="P217" s="9"/>
-      <c r="Q217" s="9"/>
-      <c r="R217" s="9"/>
+      <c r="A217" s="19"/>
+      <c r="B217" s="19"/>
+      <c r="C217" s="19"/>
+      <c r="D217" s="59"/>
+      <c r="E217" s="19"/>
+      <c r="F217" s="19"/>
+      <c r="G217" s="19"/>
+      <c r="H217" s="19"/>
+      <c r="I217" s="19"/>
+      <c r="J217" s="19"/>
+      <c r="K217" s="19"/>
+      <c r="L217" s="19"/>
+      <c r="M217" s="19"/>
+      <c r="N217" s="19"/>
+      <c r="O217" s="19"/>
+      <c r="P217" s="19"/>
+      <c r="Q217" s="19"/>
+      <c r="R217" s="19"/>
     </row>
     <row r="218" spans="1:18" ht="15.75" customHeight="1">
       <c r="A218" s="19"/>
@@ -30264,46 +30230,6 @@
       <c r="P977" s="19"/>
       <c r="Q977" s="19"/>
       <c r="R977" s="19"/>
-    </row>
-    <row r="978" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A978" s="19"/>
-      <c r="B978" s="19"/>
-      <c r="C978" s="19"/>
-      <c r="D978" s="59"/>
-      <c r="E978" s="19"/>
-      <c r="F978" s="19"/>
-      <c r="G978" s="19"/>
-      <c r="H978" s="19"/>
-      <c r="I978" s="19"/>
-      <c r="J978" s="19"/>
-      <c r="K978" s="19"/>
-      <c r="L978" s="19"/>
-      <c r="M978" s="19"/>
-      <c r="N978" s="19"/>
-      <c r="O978" s="19"/>
-      <c r="P978" s="19"/>
-      <c r="Q978" s="19"/>
-      <c r="R978" s="19"/>
-    </row>
-    <row r="979" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A979" s="19"/>
-      <c r="B979" s="19"/>
-      <c r="C979" s="19"/>
-      <c r="D979" s="59"/>
-      <c r="E979" s="19"/>
-      <c r="F979" s="19"/>
-      <c r="G979" s="19"/>
-      <c r="H979" s="19"/>
-      <c r="I979" s="19"/>
-      <c r="J979" s="19"/>
-      <c r="K979" s="19"/>
-      <c r="L979" s="19"/>
-      <c r="M979" s="19"/>
-      <c r="N979" s="19"/>
-      <c r="O979" s="19"/>
-      <c r="P979" s="19"/>
-      <c r="Q979" s="19"/>
-      <c r="R979" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30377,22 +30303,22 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C2" s="22" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-02 15-31</v>
+        <v>2022-11-02 16-43</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="23" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>

--- a/forms/contact/link_facility-edit.xlsx
+++ b/forms/contact/link_facility-edit.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="156">
   <si>
     <t>type</t>
   </si>
@@ -1239,10 +1239,10 @@
   <dimension ref="A1:AG998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1838,9 +1838,7 @@
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -30310,7 +30308,7 @@
       </c>
       <c r="C2" s="22" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-02 16-43</v>
+        <v>2022-11-03 14-17</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">

--- a/forms/contact/link_facility-edit.xlsx
+++ b/forms/contact/link_facility-edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Devolved Community Testing\Communty Testing Bodaboda_CHV Test Server_Server 3\community-testing-config-test\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CACBB0-32A5-4C99-889F-986FA842865B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1420075D-FBB7-4CA5-B46B-B75B8FE30A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="95">
   <si>
     <t>form_title</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>last_edited_by_place_uuid</t>
+  </si>
+  <si>
+    <t>edit_link_facility</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1024,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1343,10 +1346,10 @@
         <v>22</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -29986,7 +29989,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-16 1-33</v>
+        <v>2022-11-16 1-39</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>

--- a/forms/contact/link_facility-edit.xlsx
+++ b/forms/contact/link_facility-edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Devolved Community Testing\Communty Testing Bodaboda_CHV Test Server_Server 3\community-testing-config-test\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D092EEB-B39E-4E91-B653-84908E96C55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FFA6DD-8FD3-4296-8AA6-506B5ABB9CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="95">
   <si>
     <t>form_title</t>
   </si>
@@ -503,7 +503,62 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFC27BA0"/>
@@ -1169,7 +1224,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1671,7 +1726,9 @@
       <c r="B14" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="28" t="s">
+        <v>24</v>
+      </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -1703,7 +1760,9 @@
       <c r="B15" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="28" t="s">
+        <v>24</v>
+      </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -1735,7 +1794,9 @@
       <c r="B16" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="28" t="s">
+        <v>24</v>
+      </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -8278,167 +8339,192 @@
     <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A9 A11:A12 A20:A969">
-    <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="43" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A9 A11:A12 A20:A969">
-    <cfRule type="cellIs" dxfId="33" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="44" operator="equal">
       <formula>"end group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="cellIs" dxfId="32" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="51" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="cellIs" dxfId="31" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="52" operator="equal">
       <formula>"end group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="cellIs" dxfId="28" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="55" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="cellIs" dxfId="27" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="56" operator="equal">
       <formula>"end group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="cellIs" dxfId="26" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="57" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="cellIs" dxfId="25" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="58" operator="equal">
       <formula>"end group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A19">
-    <cfRule type="containsText" dxfId="24" priority="16" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="29" priority="21" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:C19">
-    <cfRule type="expression" dxfId="23" priority="17">
+    <cfRule type="expression" dxfId="28" priority="22">
       <formula>AND($A17="begin group", NOT($B17 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:C19">
-    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="23" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C19">
-    <cfRule type="expression" dxfId="21" priority="19">
-      <formula>AND(AND(NOT($A17 = "end group"), NOT($A17 = "end repeat"), NOT($A17 = "")), $C17 = "")</formula>
+  <conditionalFormatting sqref="C14:C19">
+    <cfRule type="expression" dxfId="26" priority="24">
+      <formula>AND(AND(NOT($A14 = "end group"), NOT($A14 = "end repeat"), NOT($A14 = "")), $C14 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B19">
-    <cfRule type="expression" dxfId="20" priority="20">
+    <cfRule type="expression" dxfId="25" priority="25">
       <formula>AND(AND(NOT($A17 = "end group"), NOT($A17 = "end repeat"), NOT($A17 = "")), $B17 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A19">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B19">
-    <cfRule type="expression" dxfId="18" priority="22">
+    <cfRule type="expression" dxfId="23" priority="27">
       <formula>COUNTIF($B$2:$B$926,B17)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:C19">
-    <cfRule type="expression" dxfId="17" priority="23">
+    <cfRule type="expression" dxfId="22" priority="28">
       <formula>AND($A17="begin repeat", NOT($B17 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:C19">
-    <cfRule type="expression" dxfId="16" priority="24">
+    <cfRule type="expression" dxfId="21" priority="29">
       <formula>AND($A17="end group", $B17 = "", $C17 = "", $D17 = "", $E17 = "", $F17 = "", $G17 = "", $H17 = "", $I17 = "", $J17 = "", $K17 = "", $L17 = "", $M17 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:C19">
-    <cfRule type="expression" dxfId="15" priority="25">
+    <cfRule type="expression" dxfId="20" priority="30">
       <formula>AND($A17="end repeat", $B17 = "", $C17 = "", $D17 = "", $E17 = "", $F17 = "", $G17 = "", $H17 = "", $I17 = "", $J17 = "", $K17 = "", $L17 = "", $M17 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:J19">
-    <cfRule type="expression" dxfId="14" priority="8">
+    <cfRule type="expression" dxfId="19" priority="13">
       <formula>AND($A17="begin group", NOT($B17 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:J19">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:J19">
-    <cfRule type="expression" dxfId="12" priority="10">
+    <cfRule type="expression" dxfId="17" priority="15">
       <formula>AND(AND(NOT($A17 = "end group"), NOT($A17 = "end repeat"), NOT($A17 = "")), $B17 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:J19">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="16" priority="16">
       <formula>COUNTIF($B$2:$B$926,J17)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:J19">
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="15" priority="17">
       <formula>AND($A17="begin repeat", NOT($B17 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:J19">
-    <cfRule type="expression" dxfId="9" priority="13">
+    <cfRule type="expression" dxfId="14" priority="18">
       <formula>AND($I17 = "", $A17 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:J19">
-    <cfRule type="expression" dxfId="8" priority="14">
+    <cfRule type="expression" dxfId="13" priority="19">
       <formula>AND($A17="end group", $B17 = "", $C17 = "", $D17 = "", $E17 = "", $F17 = "", $G17 = "", $H17 = "", $I17 = "", $J17 = "", $K17 = "", $L17 = "", $M17 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:J19">
-    <cfRule type="expression" dxfId="7" priority="15">
+    <cfRule type="expression" dxfId="12" priority="20">
       <formula>AND($A17="end repeat", $B17 = "", $C17 = "", $D17 = "", $E17 = "", $F17 = "", $G17 = "", $H17 = "", $I17 = "", $J17 = "", $K17 = "", $L17 = "", $M17 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A16">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A14))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A16">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="10" priority="7">
       <formula>AND($A14="begin group", NOT($B14 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A16">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A16">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A16">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="7" priority="10">
       <formula>AND($A14="begin repeat", NOT($B14 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A16">
-    <cfRule type="expression" dxfId="1" priority="6">
+    <cfRule type="expression" dxfId="6" priority="11">
       <formula>AND($A14="end group", $B14 = "", $C14 = "", $D14 = "", $E14 = "", $F14 = "", $G14 = "", $H14 = "", $I14 = "", $J14 = "", $K14 = "", $L14 = "", $M14 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A16">
-    <cfRule type="expression" dxfId="0" priority="7">
+    <cfRule type="expression" dxfId="5" priority="12">
+      <formula>AND($A14="end repeat", $B14 = "", $C14 = "", $D14 = "", $E14 = "", $F14 = "", $G14 = "", $H14 = "", $I14 = "", $J14 = "", $K14 = "", $L14 = "", $M14 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:C16">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>AND($A14="begin group", NOT($B14 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:C16">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:C16">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND($A14="begin repeat", NOT($B14 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:C16">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>AND($A14="end group", $B14 = "", $C14 = "", $D14 = "", $E14 = "", $F14 = "", $G14 = "", $H14 = "", $I14 = "", $J14 = "", $K14 = "", $L14 = "", $M14 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:C16">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>AND($A14="end repeat", $B14 = "", $C14 = "", $D14 = "", $E14 = "", $F14 = "", $G14 = "", $H14 = "", $I14 = "", $J14 = "", $K14 = "", $L14 = "", $M14 = "")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30199,7 +30285,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-16 1-42</v>
+        <v>2022-11-16 1-43</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
